--- a/output/q_patologia_previa.xlsx
+++ b/output/q_patologia_previa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -158,6 +158,15 @@
     <t>Fumador</t>
   </si>
   <si>
+    <t>Tumor renal</t>
+  </si>
+  <si>
+    <t>já nefrctomizado parcial</t>
+  </si>
+  <si>
+    <t>IRC</t>
+  </si>
+  <si>
     <t>anemia</t>
   </si>
   <si>
@@ -218,73 +227,127 @@
     <t>insuf_venosa_periferica</t>
   </si>
   <si>
+    <t>DPCO : doenca_hepatica_alcoolica</t>
+  </si>
+  <si>
+    <t>frey_sindrome</t>
+  </si>
+  <si>
+    <t>asma</t>
+  </si>
+  <si>
+    <t>hipertiroidismo</t>
+  </si>
+  <si>
+    <t>hepatite_c</t>
+  </si>
+  <si>
+    <t>hiv</t>
+  </si>
+  <si>
+    <t>doenca_hepatica_alcoolica</t>
+  </si>
+  <si>
+    <t>neoplasia</t>
+  </si>
+  <si>
+    <t>insuf_renal_cronica</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>17 : 24 : 25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>7</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>12 : 30</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>24</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>14 : 18 : 19</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>28</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -357,10 +420,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -371,10 +434,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -385,10 +448,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -399,10 +462,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -413,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -427,10 +490,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -441,10 +504,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -455,10 +518,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -469,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -483,10 +546,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -497,10 +560,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -511,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -525,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -539,10 +602,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -553,10 +616,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
@@ -567,10 +630,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
@@ -581,10 +644,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -595,10 +658,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -609,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -623,10 +686,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
@@ -637,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -651,10 +714,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -665,10 +728,10 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -679,10 +742,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -693,10 +756,10 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
@@ -710,7 +773,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -721,10 +784,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -735,10 +798,10 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -752,7 +815,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -766,7 +829,7 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -777,10 +840,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +854,10 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -805,10 +868,10 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -819,10 +882,10 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36">
@@ -833,10 +896,10 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -847,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +927,7 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -875,10 +938,10 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40">
@@ -889,10 +952,10 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41">
@@ -903,10 +966,10 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -917,10 +980,10 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43">
@@ -931,10 +994,10 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44">
@@ -945,10 +1008,10 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45">
@@ -962,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46">
@@ -973,10 +1036,10 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
@@ -987,10 +1050,10 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48">
@@ -1001,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49">
@@ -1018,7 +1081,7 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50">
@@ -1029,10 +1092,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -1043,10 +1106,10 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52">
@@ -1057,10 +1120,10 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53">
@@ -1071,10 +1134,10 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54">
@@ -1085,10 +1148,10 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55">
@@ -1099,10 +1162,10 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56">
@@ -1113,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
@@ -1127,10 +1190,10 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -1141,10 +1204,10 @@
         <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59">
@@ -1158,7 +1221,7 @@
         <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60">
@@ -1169,10 +1232,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61">
@@ -1183,10 +1246,10 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
@@ -1197,10 +1260,10 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63">
@@ -1214,7 +1277,7 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64">
@@ -1225,10 +1288,10 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
@@ -1239,10 +1302,10 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D65" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66">
@@ -1253,10 +1316,10 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67">
@@ -1267,10 +1330,10 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68">
@@ -1281,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69">
@@ -1295,10 +1358,10 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70">
@@ -1309,10 +1372,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71">
@@ -1326,7 +1389,7 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72">
@@ -1340,7 +1403,7 @@
         <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73">
@@ -1351,10 +1414,10 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
@@ -1365,10 +1428,10 @@
         <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
@@ -1379,10 +1442,10 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76">
@@ -1393,10 +1456,10 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D76" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
@@ -1410,7 +1473,7 @@
         <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78">
@@ -1424,7 +1487,7 @@
         <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79">
@@ -1435,10 +1498,10 @@
         <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80">
@@ -1449,10 +1512,10 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
@@ -1463,10 +1526,10 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D81" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82">
@@ -1480,7 +1543,7 @@
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83">
@@ -1491,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D83" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84">
@@ -1505,10 +1568,10 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85">
@@ -1522,7 +1585,7 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86">
@@ -1533,10 +1596,10 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D86" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87">
@@ -1547,10 +1610,10 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
@@ -1561,10 +1624,10 @@
         <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D88" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89">
@@ -1575,10 +1638,10 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90">
@@ -1589,10 +1652,10 @@
         <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D90" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91">
@@ -1603,10 +1666,10 @@
         <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92">
@@ -1620,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
@@ -1631,10 +1694,10 @@
         <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94">
@@ -1645,10 +1708,10 @@
         <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D94" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95">
@@ -1659,10 +1722,10 @@
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D95" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96">
@@ -1676,7 +1739,7 @@
         <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97">
@@ -1687,10 +1750,10 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98">
@@ -1701,10 +1764,10 @@
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99">
@@ -1715,10 +1778,10 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100">
@@ -1729,10 +1792,10 @@
         <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D100" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101">
@@ -1743,10 +1806,10 @@
         <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D101" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102">
@@ -1757,10 +1820,10 @@
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103">
@@ -1771,10 +1834,10 @@
         <v>47</v>
       </c>
       <c r="C103" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104">
@@ -1782,13 +1845,13 @@
         <v>46.0</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105">
@@ -1796,13 +1859,13 @@
         <v>47.0</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
@@ -1810,10 +1873,10 @@
         <v>47.0</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -1821,492 +1884,660 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>47.0</v>
+        <v>49.0</v>
       </c>
       <c r="B109" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>48.0</v>
+        <v>52.0</v>
       </c>
       <c r="B113" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>49.0</v>
+        <v>53.0</v>
       </c>
       <c r="B114" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>49.0</v>
+        <v>54.0</v>
       </c>
       <c r="B115" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>50.0</v>
+        <v>55.0</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D116" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>50.0</v>
+        <v>56.0</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>50.0</v>
+        <v>56.0</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D118" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>50.0</v>
+        <v>56.0</v>
       </c>
       <c r="B119" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D119" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>51.0</v>
+        <v>56.0</v>
       </c>
       <c r="B120" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="B121" t="s">
         <v>41</v>
       </c>
       <c r="C121" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D121" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>52.0</v>
+        <v>57.0</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="B123" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
         <v>61</v>
       </c>
       <c r="D123" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
       <c r="B124" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C124" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D124" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="B125" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D125" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="B126" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C126" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D126" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D128" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>51</v>
       </c>
       <c r="D129" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D130" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C131" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D131" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="B132" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>58.0</v>
+        <v>61.0</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D134" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>59.0</v>
+        <v>62.0</v>
       </c>
       <c r="B135" t="s">
         <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D135" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>60.0</v>
+        <v>63.0</v>
       </c>
       <c r="B136" t="s">
         <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D137" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>62.0</v>
+        <v>65.0</v>
       </c>
       <c r="B138" t="s">
         <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D139" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D140" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>54</v>
+      </c>
+      <c r="D141" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B142" t="s">
         <v>38</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>37</v>
       </c>
-      <c r="D141" t="s">
-        <v>89</v>
+      <c r="D142" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>41</v>
+      </c>
+      <c r="C144" t="s">
+        <v>57</v>
+      </c>
+      <c r="D144" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>52</v>
+      </c>
+      <c r="D145" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+      <c r="D146" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" t="s">
+        <v>64</v>
+      </c>
+      <c r="D148" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" t="s">
+        <v>64</v>
+      </c>
+      <c r="D150" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" t="s">
+        <v>40</v>
+      </c>
+      <c r="D151" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D152" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153" t="s">
+        <v>37</v>
+      </c>
+      <c r="D153" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/output/q_patologia_previa.xlsx
+++ b/output/q_patologia_previa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -167,6 +167,27 @@
     <t>IRC</t>
   </si>
   <si>
+    <t>Bloqueio de ramo esquerdo</t>
+  </si>
+  <si>
+    <t>AVC sequelar</t>
+  </si>
+  <si>
+    <t>Pacemaker</t>
+  </si>
+  <si>
+    <t>Prótese aortica</t>
+  </si>
+  <si>
+    <t>Hiperuricemia</t>
+  </si>
+  <si>
+    <t>Pneumoconiose (exposição a detergentes)</t>
+  </si>
+  <si>
+    <t>tabagisno</t>
+  </si>
+  <si>
     <t>anemia</t>
   </si>
   <si>
@@ -254,6 +275,21 @@
     <t>insuf_renal_cronica</t>
   </si>
   <si>
+    <t>bloq_ramo_esquerdo</t>
+  </si>
+  <si>
+    <t>avc</t>
+  </si>
+  <si>
+    <t>historia_pacemaker_insitu</t>
+  </si>
+  <si>
+    <t>hiperuricemia</t>
+  </si>
+  <si>
+    <t>pneumoconiose</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -348,6 +384,21 @@
   </si>
   <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -420,10 +471,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -434,10 +485,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
@@ -448,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -462,10 +513,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -476,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
@@ -490,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
@@ -504,10 +555,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
@@ -518,10 +569,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -532,10 +583,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -546,10 +597,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +611,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -574,10 +625,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -588,10 +639,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -602,10 +653,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -616,10 +667,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -630,10 +681,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
@@ -644,10 +695,10 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -658,10 +709,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -672,10 +723,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -686,10 +737,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
@@ -700,10 +751,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
@@ -714,10 +765,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -728,10 +779,10 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -742,10 +793,10 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -756,10 +807,10 @@
         <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -773,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -784,10 +835,10 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -798,10 +849,10 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -815,7 +866,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -829,7 +880,7 @@
         <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -840,10 +891,10 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -854,10 +905,10 @@
         <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -868,10 +919,10 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -882,10 +933,10 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -896,10 +947,10 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -910,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -927,7 +978,7 @@
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +989,10 @@
         <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -952,10 +1003,10 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
@@ -966,10 +1017,10 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -980,10 +1031,10 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43">
@@ -994,10 +1045,10 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1008,10 +1059,10 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45">
@@ -1025,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -1036,10 +1087,10 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -1050,10 +1101,10 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -1064,10 +1115,10 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49">
@@ -1081,7 +1132,7 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
@@ -1092,10 +1143,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
@@ -1106,10 +1157,10 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
@@ -1120,10 +1171,10 @@
         <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -1134,10 +1185,10 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54">
@@ -1148,10 +1199,10 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
@@ -1162,10 +1213,10 @@
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56">
@@ -1176,10 +1227,10 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57">
@@ -1190,10 +1241,10 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
@@ -1204,10 +1255,10 @@
         <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -1221,7 +1272,7 @@
         <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60">
@@ -1232,10 +1283,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61">
@@ -1246,10 +1297,10 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62">
@@ -1260,10 +1311,10 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63">
@@ -1277,7 +1328,7 @@
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
@@ -1288,10 +1339,10 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65">
@@ -1302,10 +1353,10 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66">
@@ -1316,10 +1367,10 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
@@ -1330,10 +1381,10 @@
         <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68">
@@ -1344,10 +1395,10 @@
         <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1409,10 @@
         <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70">
@@ -1372,10 +1423,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71">
@@ -1389,7 +1440,7 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72">
@@ -1403,7 +1454,7 @@
         <v>35</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73">
@@ -1414,10 +1465,10 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
@@ -1428,10 +1479,10 @@
         <v>36</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75">
@@ -1442,10 +1493,10 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
@@ -1456,10 +1507,10 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
@@ -1473,7 +1524,7 @@
         <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78">
@@ -1487,7 +1538,7 @@
         <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79">
@@ -1498,10 +1549,10 @@
         <v>39</v>
       </c>
       <c r="C79" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D79" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="80">
@@ -1512,10 +1563,10 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
@@ -1526,10 +1577,10 @@
         <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82">
@@ -1543,7 +1594,7 @@
         <v>40</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83">
@@ -1554,10 +1605,10 @@
         <v>23</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D83" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84">
@@ -1568,10 +1619,10 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
@@ -1585,7 +1636,7 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86">
@@ -1596,10 +1647,10 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D86" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87">
@@ -1610,10 +1661,10 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
@@ -1624,10 +1675,10 @@
         <v>41</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89">
@@ -1638,10 +1689,10 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D89" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -1652,10 +1703,10 @@
         <v>42</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91">
@@ -1666,10 +1717,10 @@
         <v>43</v>
       </c>
       <c r="C91" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92">
@@ -1683,7 +1734,7 @@
         <v>35</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93">
@@ -1694,10 +1745,10 @@
         <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D93" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94">
@@ -1708,10 +1759,10 @@
         <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D94" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95">
@@ -1722,10 +1773,10 @@
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
@@ -1739,7 +1790,7 @@
         <v>37</v>
       </c>
       <c r="D96" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97">
@@ -1750,10 +1801,10 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98">
@@ -1764,10 +1815,10 @@
         <v>23</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D98" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99">
@@ -1778,10 +1829,10 @@
         <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D99" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100">
@@ -1792,10 +1843,10 @@
         <v>45</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
@@ -1806,10 +1857,10 @@
         <v>46</v>
       </c>
       <c r="C101" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D101" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102">
@@ -1820,10 +1871,10 @@
         <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D102" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103">
@@ -1837,7 +1888,7 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104">
@@ -1851,7 +1902,7 @@
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105">
@@ -1862,10 +1913,10 @@
         <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D105" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106">
@@ -1876,10 +1927,10 @@
         <v>49</v>
       </c>
       <c r="C106" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107">
@@ -1893,7 +1944,7 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
@@ -1904,10 +1955,10 @@
         <v>50</v>
       </c>
       <c r="C108" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109">
@@ -1918,10 +1969,10 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D109" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
@@ -1932,10 +1983,10 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D110" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111">
@@ -1946,10 +1997,10 @@
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112">
@@ -1960,10 +2011,10 @@
         <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D112" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113">
@@ -1974,10 +2025,10 @@
         <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D113" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
@@ -1988,10 +2039,10 @@
         <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D114" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115">
@@ -2002,10 +2053,10 @@
         <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D115" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
@@ -2013,13 +2064,13 @@
         <v>55.0</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D116" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="117">
@@ -2027,223 +2078,223 @@
         <v>56.0</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D117" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D118" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="B119" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D120" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D121" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C122" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D122" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C123" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D124" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D125" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="B126" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D126" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>58.0</v>
+        <v>60.0</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D127" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D128" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D129" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C130" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D130" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="B132" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D132" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133">
@@ -2251,69 +2302,69 @@
         <v>61.0</v>
       </c>
       <c r="B133" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C133" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D133" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D134" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="B135" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C135" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D135" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C136" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="D136" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D137" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138">
@@ -2321,13 +2372,13 @@
         <v>65.0</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C138" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D138" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139">
@@ -2335,13 +2386,13 @@
         <v>66.0</v>
       </c>
       <c r="B139" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C139" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="D139" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
     </row>
     <row r="140">
@@ -2349,27 +2400,27 @@
         <v>66.0</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D140" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>67.0</v>
+        <v>66.0</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C141" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D141" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142">
@@ -2377,125 +2428,125 @@
         <v>67.0</v>
       </c>
       <c r="B142" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D142" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="B143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C143" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D143" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D144" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="C145" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D145" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>67.0</v>
+        <v>70.0</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D146" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>68.0</v>
+        <v>71.0</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C147" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D147" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>69.0</v>
+        <v>72.0</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C148" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D148" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D149" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="B150" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151">
@@ -2503,13 +2554,13 @@
         <v>72.0</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D151" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152">
@@ -2517,27 +2568,461 @@
         <v>72.0</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C152" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D152" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>72.0</v>
+        <v>73.0</v>
       </c>
       <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>29</v>
+      </c>
+      <c r="C156" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B157" t="s">
         <v>38</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C157" t="s">
         <v>37</v>
       </c>
-      <c r="D153" t="s">
-        <v>103</v>
+      <c r="D157" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" t="s">
+        <v>72</v>
+      </c>
+      <c r="D158" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" t="s">
+        <v>61</v>
+      </c>
+      <c r="D159" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>58</v>
+      </c>
+      <c r="D160" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>41</v>
+      </c>
+      <c r="C162" t="s">
+        <v>64</v>
+      </c>
+      <c r="D162" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>38</v>
+      </c>
+      <c r="C163" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" t="s">
+        <v>71</v>
+      </c>
+      <c r="D166" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167" t="s">
+        <v>71</v>
+      </c>
+      <c r="D167" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>71</v>
+      </c>
+      <c r="D168" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" t="s">
+        <v>71</v>
+      </c>
+      <c r="D169" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>41</v>
+      </c>
+      <c r="C170" t="s">
+        <v>64</v>
+      </c>
+      <c r="D170" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" t="s">
+        <v>61</v>
+      </c>
+      <c r="D172" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>38</v>
+      </c>
+      <c r="C173" t="s">
+        <v>37</v>
+      </c>
+      <c r="D173" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" t="s">
+        <v>72</v>
+      </c>
+      <c r="D174" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>41</v>
+      </c>
+      <c r="C175" t="s">
+        <v>64</v>
+      </c>
+      <c r="D175" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>59</v>
+      </c>
+      <c r="D176" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" t="s">
+        <v>71</v>
+      </c>
+      <c r="D178" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>71</v>
+      </c>
+      <c r="D179" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180" t="s">
+        <v>35</v>
+      </c>
+      <c r="D180" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" t="s">
+        <v>61</v>
+      </c>
+      <c r="D183" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>38</v>
+      </c>
+      <c r="C184" t="s">
+        <v>37</v>
+      </c>
+      <c r="D184" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
